--- a/negation_detection/data/Results Across Models.xlsx
+++ b/negation_detection/data/Results Across Models.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SuresMal\Documents\GitHub\task-vt\negation_detection\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C00D7799-975A-4A4E-B5C7-0535BCCF3FC6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{746935D7-CFF3-4613-A99C-7D1285FB0528}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
   <si>
     <t>Task Ref</t>
   </si>
@@ -91,50 +91,53 @@
     <t>(drug, sentence)</t>
   </si>
   <si>
+    <t>Using negspacy &amp; scispacy en_ner_bc5cdr_md</t>
+  </si>
+  <si>
+    <t>Using scispacy en_core_sci_lg</t>
+  </si>
+  <si>
+    <t># Evaluation data</t>
+  </si>
+  <si>
+    <t>1.6.1.a</t>
+  </si>
+  <si>
+    <t>1.6.1.b</t>
+  </si>
+  <si>
+    <t>1.6.2.a</t>
+  </si>
+  <si>
+    <t>1.6.2.b</t>
+  </si>
+  <si>
+    <t>1.6.2.c</t>
+  </si>
+  <si>
+    <t>1.6.3.a</t>
+  </si>
+  <si>
+    <t>1.6.3.b</t>
+  </si>
+  <si>
+    <t>1.6.3.c</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t># Negated entries</t>
+  </si>
+  <si>
+    <t>Fine-tuning on Biocorpus abstract</t>
+  </si>
+  <si>
     <t>2 classes : +ve, -ve
-Fine-tuning on annoated data: x annotated rows duplicated with drug names replaced to create y rows</t>
-  </si>
-  <si>
-    <t>Using negspacy &amp; scispacy en_ner_bc5cdr_md</t>
-  </si>
-  <si>
-    <t>Using scispacy en_core_sci_lg</t>
-  </si>
-  <si>
-    <t># Evaluation data</t>
-  </si>
-  <si>
-    <t>1.6.1.a</t>
-  </si>
-  <si>
-    <t>1.6.1.b</t>
-  </si>
-  <si>
-    <t>1.6.2.a</t>
-  </si>
-  <si>
-    <t>1.6.2.b</t>
-  </si>
-  <si>
-    <t>1.6.2.c</t>
-  </si>
-  <si>
-    <t>1.6.3.a</t>
-  </si>
-  <si>
-    <t>1.6.3.b</t>
-  </si>
-  <si>
-    <t>1.6.3.c</t>
-  </si>
-  <si>
-    <t>F1</t>
-  </si>
-  <si>
-    <t># Negated entries</t>
-  </si>
-  <si>
-    <t>Fine-tuning on Biocorpus abstract</t>
+Fine-tuning on annoated data: x annotated rows duplicated with drug names replaced to create 1k rows per class</t>
+  </si>
+  <si>
+    <t>Biomed Roberta base</t>
   </si>
 </sst>
 </file>
@@ -483,7 +486,7 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -511,10 +514,10 @@
         <v>16</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
@@ -526,7 +529,7 @@
         <v>7</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>8</v>
@@ -534,7 +537,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -566,7 +569,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
@@ -598,7 +601,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -631,13 +634,13 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
         <v>17</v>
@@ -663,13 +666,13 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
@@ -695,13 +698,13 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D7" t="s">
         <v>17</v>
@@ -728,13 +731,13 @@
     </row>
     <row r="8" spans="1:11" ht="57" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="D8" t="s">
         <v>18</v>
@@ -746,7 +749,7 @@
     </row>
     <row r="9" spans="1:11" ht="57" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B9" t="s">
         <v>14</v>
